--- a/biology/Zoologie/Casside/Casside.xlsx
+++ b/biology/Zoologie/Casside/Casside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassidinae
-Les cassides (sous-famille des Cassidinae) sont des insectes coléoptères de forme ovoïde ou ronde ce qui leur donne souvent  l'apparence d'une tortue. C'est pourquoi la casside s'appelle aussi coléoptère-tortue ou encore scarabée-tortue[1]. La tête est le plus souvent cachée, son corselet remontant jusqu'à constituer une sorte de casque[2]. Quelques espèces ressemblent aux coccinelles, d'autres sont très colorées et leur carapace peut prendre une coloration or ou argent mais ces couleurs disparaissent lorsque l'insecte est effrayé et après sa mort. Il prend alors une couleur rouge terne tachetée de noir.
+Les cassides (sous-famille des Cassidinae) sont des insectes coléoptères de forme ovoïde ou ronde ce qui leur donne souvent  l'apparence d'une tortue. C'est pourquoi la casside s'appelle aussi coléoptère-tortue ou encore scarabée-tortue. La tête est le plus souvent cachée, son corselet remontant jusqu'à constituer une sorte de casque. Quelques espèces ressemblent aux coccinelles, d'autres sont très colorées et leur carapace peut prendre une coloration or ou argent mais ces couleurs disparaissent lorsque l'insecte est effrayé et après sa mort. Il prend alors une couleur rouge terne tachetée de noir.
 La sous-famille des Cassidinae a été créée par Leonard Gyllenhaal (1752-1840) en 1813.
 </t>
         </is>
